--- a/Archive/LBF _Catalogue Produits Nom de la Marque Cliente V02.xlsx
+++ b/Archive/LBF _Catalogue Produits Nom de la Marque Cliente V02.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\g\outsource\TmallLBF\TmalLBF\Archive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16420" windowHeight="18060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="18060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products Catalogue " sheetId="4" r:id="rId1"/>
-    <sheet name="Description " sheetId="6" r:id="rId2"/>
-    <sheet name="TMG PRODUCTS STRUCTURES &amp; FEES" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Description " sheetId="6" r:id="rId3"/>
+    <sheet name="TMG PRODUCTS STRUCTURES &amp; FEES" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +50,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +263,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +284,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +310,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +320,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +331,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +341,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -390,7 +396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -401,7 +407,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,7 +418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,7 +429,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,7 +440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,7 +451,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1116,7 +1122,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1126,7 +1132,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1143,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1166,7 +1172,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1200,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,7 +1210,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1297,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1306,7 +1312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1321,7 +1327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,32 +1372,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="[$¥-804]#,##0.0000;[$¥-804]\-#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$¥-804]#,##0.0000;[$¥-804]\-#,##0.0000"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1410,7 +1416,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1423,13 +1429,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1447,7 +1453,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1460,7 +1466,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1468,7 +1474,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1476,20 +1482,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1497,7 +1503,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1510,7 +1516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1518,7 +1524,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1553,7 +1559,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1566,7 +1572,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1578,8 +1584,15 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1863,22 +1876,22 @@
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1912,7 +1925,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1937,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2060,19 +2073,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="3" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2093,19 +2106,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2126,13 +2139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="3" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="3" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2141,7 +2154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="3" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="29" fillId="3" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2169,10 +2182,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,16 +2218,17 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Currency" xfId="15" builtinId="4"/>
     <cellStyle name="Milliers 2" xfId="8"/>
     <cellStyle name="Milliers 2 2" xfId="12"/>
     <cellStyle name="Monétaire 2" xfId="9"/>
     <cellStyle name="Monétaire 2 2" xfId="13"/>
     <cellStyle name="Monétaire 3" xfId="2"/>
     <cellStyle name="Monétaire 4" xfId="11"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="6"/>
@@ -2223,6 +2237,8 @@
     <cellStyle name="Normal 5" xfId="10"/>
     <cellStyle name="Normal 6" xfId="1"/>
     <cellStyle name="Normal 7" xfId="14"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="15" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2492,7 +2508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2502,49 +2518,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="99"/>
-    <col min="2" max="2" width="17.6640625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="66" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="66" customWidth="1"/>
     <col min="10" max="10" width="29" style="66" customWidth="1"/>
     <col min="11" max="11" width="37" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.125" style="66" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" style="66" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="66" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="66" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="66" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="66" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="66" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="31.625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="66" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="66" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="66" customWidth="1"/>
+    <col min="21" max="21" width="6.625" style="66" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="66" customWidth="1"/>
     <col min="23" max="23" width="15.5" style="66" customWidth="1"/>
     <col min="24" max="24" width="21.5" style="66" customWidth="1"/>
-    <col min="25" max="25" width="26.6640625" style="66" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" style="66" customWidth="1"/>
+    <col min="25" max="25" width="26.625" style="66" customWidth="1"/>
+    <col min="26" max="26" width="23.625" style="66" customWidth="1"/>
     <col min="27" max="27" width="16.5" style="66" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" style="66" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" style="66" customWidth="1"/>
-    <col min="30" max="30" width="22.83203125" style="66" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" style="66" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="66" customWidth="1"/>
+    <col min="28" max="28" width="15.625" style="66" customWidth="1"/>
+    <col min="29" max="29" width="24.125" style="66" customWidth="1"/>
+    <col min="30" max="30" width="22.875" style="66" customWidth="1"/>
+    <col min="31" max="31" width="14.625" style="66" customWidth="1"/>
+    <col min="32" max="32" width="18.375" style="66" customWidth="1"/>
     <col min="33" max="16384" width="11.5" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" ht="15" thickBot="1"/>
-    <row r="2" spans="1:201" ht="29" thickBot="1">
+    <row r="1" spans="1:201" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:201" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="67" t="s">
         <v>61</v>
       </c>
@@ -2571,7 +2587,7 @@
       <c r="AD2" s="107"/>
       <c r="AE2" s="68"/>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:201" x14ac:dyDescent="0.15">
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
@@ -2589,7 +2605,7 @@
       <c r="AD3" s="67"/>
       <c r="AE3" s="68"/>
     </row>
-    <row r="4" spans="1:201" ht="28">
+    <row r="4" spans="1:201" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="74" t="s">
         <v>104</v>
       </c>
@@ -2607,7 +2623,7 @@
       <c r="U4" s="65"/>
       <c r="V4" s="65"/>
     </row>
-    <row r="5" spans="1:201" ht="15">
+    <row r="5" spans="1:201" ht="15" x14ac:dyDescent="0.15">
       <c r="E5" s="68"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
@@ -2630,7 +2646,7 @@
       <c r="AC5" s="68"/>
       <c r="AD5" s="65"/>
     </row>
-    <row r="6" spans="1:201" s="77" customFormat="1" ht="60">
+    <row r="6" spans="1:201" s="77" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="100"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2885,7 +2901,7 @@
       <c r="GR6" s="76"/>
       <c r="GS6" s="76"/>
     </row>
-    <row r="7" spans="1:201" s="77" customFormat="1" ht="30">
+    <row r="7" spans="1:201" s="77" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A7" s="100"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -3102,7 +3118,7 @@
       <c r="GR7" s="76"/>
       <c r="GS7" s="76"/>
     </row>
-    <row r="8" spans="1:201" ht="39.5" customHeight="1">
+    <row r="8" spans="1:201" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="101" t="s">
         <v>117</v>
       </c>
@@ -3346,7 +3362,7 @@
       <c r="GR8" s="76"/>
       <c r="GS8" s="76"/>
     </row>
-    <row r="9" spans="1:201" ht="42">
+    <row r="9" spans="1:201" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="101" t="s">
         <v>117</v>
       </c>
@@ -3413,7 +3429,7 @@
       <c r="AD9" s="79"/>
       <c r="AE9" s="79"/>
     </row>
-    <row r="10" spans="1:201" ht="43.25" customHeight="1">
+    <row r="10" spans="1:201" ht="43.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="101" t="s">
         <v>117</v>
       </c>
@@ -3480,7 +3496,7 @@
       <c r="AD10" s="79"/>
       <c r="AE10" s="79"/>
     </row>
-    <row r="11" spans="1:201" ht="43.25" customHeight="1">
+    <row r="11" spans="1:201" ht="43.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="101" t="s">
         <v>117</v>
       </c>
@@ -3547,7 +3563,7 @@
       <c r="AD11" s="79"/>
       <c r="AE11" s="79"/>
     </row>
-    <row r="12" spans="1:201" ht="43.25" customHeight="1">
+    <row r="12" spans="1:201" ht="43.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="101" t="s">
         <v>117</v>
       </c>
@@ -3614,7 +3630,7 @@
       <c r="AD12" s="79"/>
       <c r="AE12" s="79"/>
     </row>
-    <row r="13" spans="1:201" ht="26.5" customHeight="1">
+    <row r="13" spans="1:201" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="97" t="s">
         <v>117</v>
       </c>
@@ -3680,7 +3696,9 @@
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="I6:J6"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3691,22 +3709,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="118"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="118">
+        <v>-184.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="118">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="118">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="118">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="118">
+        <v>5.9</v>
+      </c>
+      <c r="D5" s="118">
+        <f>SUM(A1:A45)</f>
+        <v>19369.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="118">
+        <v>142</v>
+      </c>
+      <c r="F6" s="118">
+        <f>(D7-D5)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="118">
+        <v>1.01</v>
+      </c>
+      <c r="D7" s="118">
+        <v>19407.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="118">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="118">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="118">
+        <v>119.9</v>
+      </c>
+      <c r="H10" s="118">
+        <v>8571.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="118">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="118">
+        <v>22.1</v>
+      </c>
+      <c r="E12" s="118">
+        <v>15</v>
+      </c>
+      <c r="F12" s="118">
+        <v>8500</v>
+      </c>
+      <c r="J12" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="118">
+        <v>25.8</v>
+      </c>
+      <c r="G13" s="118">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="118">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="118">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="118">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="118">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="118">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="118">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="118">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="118">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="118">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="118">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="118">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="118">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="118">
+        <v>242.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="118">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="118">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="118">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="118">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="118">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="118">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="118">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="118">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="118">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="118">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="118">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="90.6640625" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="90.625" customWidth="1"/>
+    <col min="5" max="5" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1"/>
-    <row r="2" spans="2:5" ht="155" customHeight="1">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="155.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="113" t="s">
         <v>107</v>
       </c>
@@ -3716,7 +4004,7 @@
       </c>
       <c r="E2" s="44"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
         <v>83</v>
       </c>
@@ -3730,7 +4018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15">
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="23" t="s">
         <v>98</v>
       </c>
@@ -3744,7 +4032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15">
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
         <v>105</v>
       </c>
@@ -3756,7 +4044,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="2:5" ht="15">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
@@ -3770,7 +4058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
@@ -3784,7 +4072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +4086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="26" t="s">
         <v>20</v>
       </c>
@@ -3812,7 +4100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30">
+    <row r="10" spans="2:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
@@ -3826,7 +4114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30">
+    <row r="11" spans="2:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>37</v>
       </c>
@@ -3840,7 +4128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30">
+    <row r="12" spans="2:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
@@ -3854,7 +4142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="79.25" customHeight="1">
+    <row r="13" spans="2:5" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="58" t="s">
         <v>103</v>
       </c>
@@ -3868,7 +4156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="79.25" customHeight="1">
+    <row r="14" spans="2:5" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="104" t="s">
         <v>136</v>
       </c>
@@ -3882,7 +4170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15">
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="23" t="s">
         <v>44</v>
       </c>
@@ -3896,7 +4184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15">
+    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>21</v>
       </c>
@@ -3910,7 +4198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="20" customFormat="1" ht="15">
+    <row r="17" spans="2:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3924,7 +4212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="20" customFormat="1" ht="31.25" customHeight="1">
+    <row r="18" spans="2:12" s="20" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="24" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +4236,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +4250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
         <v>80</v>
       </c>
@@ -3976,7 +4264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
         <v>87</v>
       </c>
@@ -3990,7 +4278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30">
+    <row r="22" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B22" s="25" t="s">
         <v>18</v>
       </c>
@@ -4004,7 +4292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B23" s="36" t="s">
         <v>50</v>
       </c>
@@ -4018,7 +4306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B24" s="36" t="s">
         <v>49</v>
       </c>
@@ -4032,7 +4320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="30">
+    <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
@@ -4046,7 +4334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="36" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4353,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
@@ -4084,7 +4372,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="36" t="s">
         <v>57</v>
       </c>
@@ -4104,7 +4392,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="30">
+    <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4404,7 @@
       </c>
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="2:12" ht="30">
+    <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B30" s="25" t="s">
         <v>62</v>
       </c>
@@ -4130,7 +4418,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B31" s="23" t="s">
         <v>23</v>
       </c>
@@ -4144,7 +4432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="28">
+    <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
         <v>63</v>
       </c>
@@ -4158,7 +4446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="35" customHeight="1">
+    <row r="33" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="23" t="s">
         <v>14</v>
       </c>
@@ -4170,7 +4458,7 @@
       </c>
       <c r="E33" s="46"/>
     </row>
-    <row r="34" spans="2:10" ht="30">
+    <row r="34" spans="2:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
         <v>88</v>
       </c>
@@ -4184,7 +4472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15">
+    <row r="35" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="23" t="s">
         <v>25</v>
       </c>
@@ -4196,7 +4484,7 @@
       </c>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" spans="2:10" ht="15">
+    <row r="36" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
         <v>64</v>
       </c>
@@ -4208,7 +4496,7 @@
       </c>
       <c r="E36" s="46"/>
     </row>
-    <row r="37" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="37" spans="2:10" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="55" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +4513,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="40" spans="2:10" ht="42">
+    <row r="40" spans="2:10" ht="54" x14ac:dyDescent="0.15">
       <c r="D40" s="28" t="s">
         <v>100</v>
       </c>
@@ -4234,6 +4522,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4243,7 +4532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
@@ -4251,16 +4540,16 @@
       <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="62" customHeight="1">
+    <row r="2" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>97</v>
       </c>
@@ -4270,7 +4559,7 @@
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
     </row>
-    <row r="3" spans="1:7" s="28" customFormat="1" ht="36">
+    <row r="3" spans="1:7" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
         <v>92</v>
       </c>
@@ -4293,7 +4582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.5" customHeight="1">
+    <row r="4" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="114" t="s">
         <v>109</v>
       </c>
@@ -4316,7 +4605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.5" customHeight="1">
+    <row r="5" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="114"/>
       <c r="B5" s="116" t="s">
         <v>110</v>
@@ -4337,7 +4626,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1">
+    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="114"/>
       <c r="B6" s="116" t="s">
         <v>110</v>
@@ -4367,6 +4656,7 @@
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
